--- a/氣象性能評估工具V2/data/obs/2016-06-09_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-09_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="207">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-09-00</t>
   </si>
   <si>
-    <t>21.2</t>
-  </si>
-  <si>
     <t>26.5</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>26.6</t>
   </si>
   <si>
+    <t>20.9</t>
+  </si>
+  <si>
     <t>2016-06-09-01</t>
   </si>
   <si>
-    <t>20.9</t>
-  </si>
-  <si>
     <t>26.3</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>24.8</t>
   </si>
   <si>
+    <t>21.3</t>
+  </si>
+  <si>
     <t>2016-06-09-04</t>
   </si>
   <si>
-    <t>21.3</t>
-  </si>
-  <si>
     <t>22.6</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>27.3</t>
   </si>
   <si>
+    <t>21.6</t>
+  </si>
+  <si>
     <t>2016-06-09-05</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
     <t>22.8</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>5.9</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-09-06</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>23.7</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>25.5</t>
   </si>
   <si>
+    <t>23.9</t>
+  </si>
+  <si>
     <t>2016-06-09-07</t>
   </si>
   <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>29.0</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>9.0</t>
   </si>
   <si>
+    <t>23.3</t>
+  </si>
+  <si>
     <t>2016-06-09-09</t>
   </si>
   <si>
-    <t>23.3</t>
-  </si>
-  <si>
     <t>30.4</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>31.0</t>
   </si>
   <si>
+    <t>23.6</t>
+  </si>
+  <si>
     <t>2016-06-09-10</t>
   </si>
   <si>
-    <t>23.6</t>
-  </si>
-  <si>
     <t>30.7</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>30.5</t>
   </si>
   <si>
+    <t>23.5</t>
+  </si>
+  <si>
     <t>2016-06-09-14</t>
   </si>
   <si>
-    <t>23.5</t>
-  </si>
-  <si>
     <t>9.4</t>
   </si>
   <si>
@@ -577,12 +577,12 @@
     <t>6.9</t>
   </si>
   <si>
+    <t>21.9</t>
+  </si>
+  <si>
     <t>2016-06-09-19</t>
   </si>
   <si>
-    <t>21.9</t>
-  </si>
-  <si>
     <t>22.7</t>
   </si>
   <si>
@@ -592,12 +592,12 @@
     <t>6.8</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-09-20</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>19.9</t>
   </si>
   <si>
@@ -607,12 +607,12 @@
     <t>6.3</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-09-21</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>20.5</t>
   </si>
   <si>
@@ -625,10 +625,10 @@
     <t>7.0</t>
   </si>
   <si>
+    <t>21.0</t>
+  </si>
+  <si>
     <t>2016-06-09-23</t>
-  </si>
-  <si>
-    <t>21.0</t>
   </si>
   <si>
     <t>20.3</t>
@@ -641,6 +641,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -670,8 +673,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,11 +1054,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1127,11 +1131,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -1204,11 +1208,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -1281,11 +1285,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1358,11 +1362,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1435,11 +1439,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1512,11 +1516,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1589,11 +1593,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
@@ -1666,11 +1670,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
@@ -1743,11 +1747,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>128</v>
@@ -1820,11 +1824,11 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -1897,7 +1901,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B13" t="s">
@@ -1974,7 +1978,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B14" t="s">
@@ -2051,7 +2055,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B15" t="s">
@@ -2128,11 +2132,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
         <v>170</v>
-      </c>
-      <c r="B16" t="s">
-        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
@@ -2205,7 +2209,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B17" t="s">
@@ -2215,7 +2219,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
         <v>113</v>
@@ -2282,7 +2286,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B18" t="s">
@@ -2325,7 +2329,7 @@
         <v>57</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" t="s">
         <v>177</v>
@@ -2359,7 +2363,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B19" t="s">
@@ -2436,7 +2440,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B20" t="s">
@@ -2513,11 +2517,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
         <v>187</v>
-      </c>
-      <c r="B21" t="s">
-        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -2590,17 +2594,17 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
         <v>192</v>
-      </c>
-      <c r="B22" t="s">
-        <v>193</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
@@ -2667,17 +2671,17 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" t="s">
         <v>197</v>
-      </c>
-      <c r="B23" t="s">
-        <v>198</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
         <v>92</v>
@@ -2744,11 +2748,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
         <v>107</v>
@@ -2821,11 +2825,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
         <v>203</v>
-      </c>
-      <c r="B25" t="s">
-        <v>204</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
